--- a/Daily Attandance record/16 June/21,June.xlsx
+++ b/Daily Attandance record/16 June/21,June.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Daily Attandance record\16 June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B81BD2F-6A13-4992-96A2-91862643F266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AD70DE-3602-4CA1-B171-6F2006788E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
@@ -1476,8 +1476,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5308,11 +5308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7B5E83-F9FA-49F7-A157-B2BCB2845355}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I186" sqref="I186"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5345,7 +5344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5365,7 +5364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5405,7 +5404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5425,7 +5424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5505,7 +5504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5645,7 +5644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5925,7 +5924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5945,7 +5944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6045,7 +6044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6065,7 +6064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6085,7 +6084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6165,7 +6164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6225,7 +6224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6265,7 +6264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6325,7 +6324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6345,7 +6344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6365,7 +6364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6385,7 +6384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6405,7 +6404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -6585,7 +6584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6625,7 +6624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6665,7 +6664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -6705,7 +6704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6745,7 +6744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6785,7 +6784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6845,7 +6844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6865,7 +6864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6905,7 +6904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6945,7 +6944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6965,7 +6964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -7005,7 +7004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -7025,7 +7024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -7045,7 +7044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -7065,7 +7064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -7085,7 +7084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7165,7 +7164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7185,7 +7184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7205,7 +7204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7225,7 +7224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7245,7 +7244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7285,7 +7284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7305,7 +7304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7325,7 +7324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7345,7 +7344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7425,7 +7424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7445,7 +7444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7465,7 +7464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7485,7 +7484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -7545,7 +7544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -7565,7 +7564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7605,7 +7604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7625,7 +7624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7645,7 +7644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7705,7 +7704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7725,7 +7724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7745,7 +7744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -7865,7 +7864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -7885,7 +7884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7905,7 +7904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7945,7 +7944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7985,7 +7984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -8025,7 +8024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -8045,7 +8044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -8085,7 +8084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -8165,7 +8164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -8185,7 +8184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -8205,7 +8204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -8225,7 +8224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -8245,7 +8244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -8285,7 +8284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -8305,7 +8304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -8325,7 +8324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -8405,7 +8404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -8425,7 +8424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -8445,7 +8444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -8465,7 +8464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -8545,7 +8544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -8565,7 +8564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -8605,7 +8604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -8625,7 +8624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -8685,7 +8684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -8705,7 +8704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -8725,7 +8724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -8745,7 +8744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -8765,7 +8764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -8805,7 +8804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -8825,7 +8824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -8845,7 +8844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -8866,13 +8865,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F177" xr:uid="{2C7B5E83-F9FA-49F7-A157-B2BCB2845355}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>